--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ambiente\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0069553-A391-401E-BEE3-02F248A30E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C77C08-8109-423F-BB95-2F37345D61EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="7" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t xml:space="preserve">Horario </t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Horario </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID unico del horario  </t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t xml:space="preserve">ID_Recordatorio </t>
   </si>
   <si>
-    <t>ID_Horario</t>
-  </si>
-  <si>
     <t>ID unico del recordatorio</t>
   </si>
   <si>
@@ -343,10 +337,16 @@
     <t>Usuarios</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Tiposervicio </t>
-  </si>
-  <si>
     <t>ID único del tipo de servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARCHAR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_tipo_servicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_horario </t>
   </si>
 </sst>
 </file>
@@ -538,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -836,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,7 +850,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -880,10 +880,10 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -891,7 +891,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -971,15 +971,15 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -987,7 +987,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1017,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1058,12 +1058,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1090,15 +1090,15 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1106,7 +1106,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1121,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
   <dimension ref="B1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,10 +1165,10 @@
     </row>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1176,15 +1176,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -1192,15 +1192,15 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1208,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1225,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1238,7 +1238,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1279,12 +1279,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1311,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1357,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1373,7 +1373,7 @@
         <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1445,7 +1445,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1461,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1507,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1515,7 +1515,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1547,7 +1547,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1568,10 +1568,10 @@
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1579,7 +1579,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1587,7 +1587,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -1611,7 +1611,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +1624,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1654,10 +1654,10 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1665,12 +1665,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1697,12 +1697,12 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="7" max="7" width="55.28515625" customWidth="1"/>
   </cols>
@@ -1743,7 +1743,7 @@
         <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1751,7 +1751,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1791,7 +1791,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1804,10 +1804,10 @@
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1815,7 +1815,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1832,7 +1832,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1878,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1902,7 +1902,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,7 +1910,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -1942,7 +1942,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1950,15 +1950,15 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1966,7 +1966,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +1982,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -2044,7 +2044,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -2057,10 +2057,10 @@
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2068,7 +2068,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2076,7 +2076,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2100,7 +2100,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2146,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -2170,7 +2170,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2178,7 +2178,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2202,7 +2202,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2223,6 +2223,14 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2443,14 +2451,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
   <ds:schemaRefs>
@@ -2460,6 +2460,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2476,21 +2493,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C77C08-8109-423F-BB95-2F37345D61EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B07A7-8579-42CB-8CAE-ADDA9BEEB765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="7" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="10275" yWindow="0" windowWidth="10215" windowHeight="11070" firstSheet="9" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
     <sheet name="Rol" sheetId="3" r:id="rId2"/>
     <sheet name="ReservaTurno" sheetId="5" r:id="rId3"/>
-    <sheet name="Producto" sheetId="7" r:id="rId4"/>
-    <sheet name=" Categoria producto" sheetId="20" r:id="rId5"/>
-    <sheet name="Tipo Servicio " sheetId="9" r:id="rId6"/>
-    <sheet name="Compra" sheetId="6" r:id="rId7"/>
-    <sheet name="CarritoCompras" sheetId="10" r:id="rId8"/>
-    <sheet name="Factura" sheetId="11" r:id="rId9"/>
-    <sheet name="Recordatorio" sheetId="16" r:id="rId10"/>
-    <sheet name="Horario " sheetId="15" r:id="rId11"/>
+    <sheet name="Tipo Servicio " sheetId="9" r:id="rId4"/>
+    <sheet name="Recordatorio" sheetId="16" r:id="rId5"/>
+    <sheet name="Producto" sheetId="7" r:id="rId6"/>
+    <sheet name=" Categoria producto" sheetId="20" r:id="rId7"/>
+    <sheet name="Compra" sheetId="6" r:id="rId8"/>
+    <sheet name="Tipo de pago " sheetId="15" r:id="rId9"/>
+    <sheet name="CarritoCompras" sheetId="10" r:id="rId10"/>
+    <sheet name="Factura" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
   <si>
     <t>column name</t>
   </si>
@@ -109,9 +109,6 @@
     <t>Precio_Total</t>
   </si>
   <si>
-    <t>Tipo_Pago</t>
-  </si>
-  <si>
     <t>ID_producto</t>
   </si>
   <si>
@@ -202,15 +199,9 @@
     <t>ID unico del tipo de servico para la reserva del turno</t>
   </si>
   <si>
-    <t xml:space="preserve">Horario </t>
-  </si>
-  <si>
     <t xml:space="preserve">ID unico del horario  </t>
   </si>
   <si>
-    <t>ID unico de la hora</t>
-  </si>
-  <si>
     <t>Descripcion de la compra</t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t>Categoria del producto</t>
   </si>
   <si>
-    <t>Fecha_Hora</t>
-  </si>
-  <si>
     <t>Fecha y hora del horario</t>
   </si>
   <si>
@@ -319,9 +307,6 @@
     <t>ID unico del rol del usuario</t>
   </si>
   <si>
-    <t>ID_horario</t>
-  </si>
-  <si>
     <t>ID_categoria_producto</t>
   </si>
   <si>
@@ -346,7 +331,19 @@
     <t xml:space="preserve">ID_tipo_servicio </t>
   </si>
   <si>
-    <t xml:space="preserve">ID_horario </t>
+    <t xml:space="preserve">Fecha_Hora </t>
+  </si>
+  <si>
+    <t>Tipo de pago</t>
+  </si>
+  <si>
+    <t>ID_tipo_pago</t>
+  </si>
+  <si>
+    <t>TipoPago</t>
+  </si>
+  <si>
+    <t>ID_Tipo_Pago</t>
   </si>
 </sst>
 </file>
@@ -538,9 +535,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +575,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +823,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,7 +847,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -880,7 +877,7 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -891,7 +888,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -907,7 +904,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -923,7 +920,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +936,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -955,7 +952,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -971,15 +968,15 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -987,7 +984,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1000,24 +997,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE36B24-2715-400C-9E85-4730A4D9CC14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="59.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1025,7 +1022,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,12 +1042,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1058,31 +1055,31 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>97</v>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G5" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1090,15 +1087,15 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1106,7 +1103,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1118,24 +1115,24 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
-  <dimension ref="B1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
+  <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1143,7 +1140,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,12 +1160,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1176,15 +1173,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>70</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -1192,15 +1189,15 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1208,6 +1205,22 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1216,7 +1229,6 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1238,7 +1250,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1268,10 +1280,10 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1279,12 +1291,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1295,7 +1307,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +1323,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,10 +1382,10 @@
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1381,15 +1393,15 @@
         <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>94</v>
+      <c r="B6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1402,10 +1414,10 @@
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1413,15 +1425,15 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -1429,15 +1441,15 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1445,7 +1457,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1457,6 +1469,244 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
+  <dimension ref="B1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FE36B24-2715-400C-9E85-4730A4D9CC14}">
+  <dimension ref="B1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C30701A-A241-497A-87AC-90B96D43611C}">
   <dimension ref="B1:G9"/>
   <sheetViews>
@@ -1474,7 +1724,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1504,7 +1754,7 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1515,12 +1765,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1531,12 +1781,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1547,12 +1797,12 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
@@ -1563,15 +1813,15 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1579,12 +1829,12 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1595,7 +1845,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2D4616-9B7D-48B5-BA5E-E7ABB003E7B0}">
   <dimension ref="B1:G5"/>
   <sheetViews>
@@ -1624,7 +1874,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1654,7 +1904,7 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1665,12 +1915,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1681,7 +1931,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1692,147 +1942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63FEC9F6-127D-410C-8876-F4857825EC68}">
-  <dimension ref="B1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="7" max="7" width="55.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1993,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1886,12 +2001,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1902,7 +2017,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1910,7 +2025,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -1918,12 +2033,12 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+      <c r="B7" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -1934,15 +2049,15 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1950,15 +2065,15 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1966,125 +2081,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4307875-C86E-46A0-ACA3-04DC98865736}">
-  <dimension ref="B1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="59.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="2:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2096,24 +2093,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
-  <dimension ref="B1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9757E9D-4934-4EDF-9513-D95364CE2861}">
+  <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="61" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2121,7 +2118,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2141,12 +2138,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -2154,15 +2151,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -2170,39 +2167,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2210,24 +2175,25 @@
     <mergeCell ref="B2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2452,14 +2418,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
@@ -2472,6 +2430,14 @@
     <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5B07A7-8579-42CB-8CAE-ADDA9BEEB765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69B03F2-3FFF-483E-BADC-DE70177FB8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="0" windowWidth="10215" windowHeight="11070" firstSheet="9" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="6" activeTab="7" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="101">
   <si>
     <t>column name</t>
   </si>
@@ -151,9 +151,6 @@
     <t>ID unico del producto del carrito de compras</t>
   </si>
   <si>
-    <t>ID unico de la Compra en el carrito de compras</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carrito de compras </t>
   </si>
   <si>
@@ -173,9 +170,6 @@
   </si>
   <si>
     <t>Cancelar_Turno</t>
-  </si>
-  <si>
-    <t>TINYINT</t>
   </si>
   <si>
     <t>Se acepta el turno</t>
@@ -847,7 +841,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -877,7 +871,7 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -888,7 +882,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -904,7 +898,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -920,7 +914,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,7 +930,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -952,7 +946,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -968,15 +962,15 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -984,7 +978,7 @@
         <v>18</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +995,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,7 +1008,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1044,10 +1038,10 @@
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1063,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1076,10 +1070,10 @@
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1087,25 +1081,10 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G2"/>
@@ -1118,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1111,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1162,10 +1141,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1173,7 +1152,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1189,7 +1168,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1197,7 +1176,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1205,15 +1184,15 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1221,7 +1200,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1229,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1280,10 +1259,10 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1291,12 +1270,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1307,7 +1286,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1302,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,10 +1361,10 @@
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1393,15 +1372,15 @@
         <v>18</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1414,10 +1393,10 @@
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1425,15 +1404,15 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -1441,15 +1420,15 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1457,7 +1436,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1486,7 +1465,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1516,7 +1495,7 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1527,7 +1506,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1543,7 +1522,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1575,12 +1554,12 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1591,7 +1570,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1621,7 +1600,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1651,10 +1630,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -1662,12 +1641,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1678,7 +1657,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1686,7 +1665,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1694,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1744,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1781,7 +1760,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1797,7 +1776,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1818,10 +1797,10 @@
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1829,7 +1808,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1874,7 +1853,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1904,7 +1883,7 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1915,12 +1894,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1931,7 +1910,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1993,7 +1972,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -2017,7 +1996,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2025,7 +2004,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -2038,7 +2017,7 @@
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -2057,7 +2036,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2065,15 +2044,15 @@
         <v>18</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2081,7 +2060,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2089,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2140,10 +2119,10 @@
     </row>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>18</v>
@@ -2151,15 +2130,15 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -2167,7 +2146,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2180,23 +2159,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2417,32 +2379,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2459,4 +2413,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654803a-f478-4af1-92a3-defc78799f17"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27705"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69B03F2-3FFF-483E-BADC-DE70177FB8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA5CBF-DEA2-45F6-A63C-9662E809C98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11070" firstSheet="6" activeTab="7" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
   <si>
     <t>column name</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Nombre_usuario</t>
   </si>
   <si>
-    <t>DataTime</t>
-  </si>
-  <si>
     <t>Reserva de turno</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>ID único de la reserva de turno</t>
   </si>
   <si>
-    <t>Fecha y hora para la reseerva del turno</t>
-  </si>
-  <si>
     <t>Compra</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Producto</t>
   </si>
   <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
     <t xml:space="preserve">Precio </t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t xml:space="preserve">Descripcion </t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -181,9 +169,6 @@
     <t xml:space="preserve">Tipo Servicio </t>
   </si>
   <si>
-    <t>ID_TipoServicio</t>
-  </si>
-  <si>
     <t>Nombre del servicio</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
     <t>ID unico de la categoria del producto</t>
   </si>
   <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
     <t>ID Unico para Categoria_Producto</t>
   </si>
   <si>
@@ -325,9 +307,6 @@
     <t xml:space="preserve">ID_tipo_servicio </t>
   </si>
   <si>
-    <t xml:space="preserve">Fecha_Hora </t>
-  </si>
-  <si>
     <t>Tipo de pago</t>
   </si>
   <si>
@@ -338,6 +317,36 @@
   </si>
   <si>
     <t>ID_Tipo_Pago</t>
+  </si>
+  <si>
+    <t>Descripcion_S</t>
+  </si>
+  <si>
+    <t>Descripcion_P</t>
+  </si>
+  <si>
+    <t>Descripcion_C</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>Hora para la reseerva del turno</t>
+  </si>
+  <si>
+    <t>Fecha para la reseerva del turno</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATE </t>
+  </si>
+  <si>
+    <t>ID_tipo_servicio</t>
   </si>
 </sst>
 </file>
@@ -529,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -569,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -675,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -817,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,7 +850,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -871,18 +880,18 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -894,11 +903,11 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -910,11 +919,11 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -926,11 +935,11 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -942,11 +951,11 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -958,27 +967,27 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1017,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1038,50 +1047,50 @@
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1098,7 +1107,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1120,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1141,66 +1150,66 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1238,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1259,34 +1268,34 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1299,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1324,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1345,98 +1354,114 @@
     </row>
     <row r="4" spans="2:7" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>43</v>
+      <c r="B7" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
-        <v>70</v>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>77</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1477,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1465,7 +1490,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1495,71 +1520,71 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1567,10 +1592,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1625,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1630,50 +1655,50 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1715,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,7 +1728,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1733,98 +1758,98 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1865,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,7 +1878,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1883,34 +1908,34 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1925,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56231A21-352E-4BA6-9095-2CC725DDC383}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +1964,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1969,98 +1994,98 @@
     </row>
     <row r="4" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="G7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2089,7 +2114,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2119,34 +2144,34 @@
     </row>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2159,6 +2184,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2379,15 +2413,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2397,6 +2422,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2411,14 +2444,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27705"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DA5CBF-DEA2-45F6-A63C-9662E809C98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6186EBEB-9481-460D-93A4-28A4B5AB86E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Rol" sheetId="3" r:id="rId2"/>
-    <sheet name="ReservaTurno" sheetId="5" r:id="rId3"/>
-    <sheet name="Tipo Servicio " sheetId="9" r:id="rId4"/>
-    <sheet name="Recordatorio" sheetId="16" r:id="rId5"/>
-    <sheet name="Producto" sheetId="7" r:id="rId6"/>
-    <sheet name=" Categoria producto" sheetId="20" r:id="rId7"/>
-    <sheet name="Compra" sheetId="6" r:id="rId8"/>
-    <sheet name="Tipo de pago " sheetId="15" r:id="rId9"/>
-    <sheet name="CarritoCompras" sheetId="10" r:id="rId10"/>
-    <sheet name="Factura" sheetId="11" r:id="rId11"/>
+    <sheet name="usuarios " sheetId="1" r:id="rId1"/>
+    <sheet name="rol" sheetId="3" r:id="rId2"/>
+    <sheet name="reserva_turno" sheetId="5" r:id="rId3"/>
+    <sheet name="tipo_servicio " sheetId="9" r:id="rId4"/>
+    <sheet name="recordatorio" sheetId="16" r:id="rId5"/>
+    <sheet name="producto" sheetId="7" r:id="rId6"/>
+    <sheet name="categoria_producto" sheetId="20" r:id="rId7"/>
+    <sheet name="compra" sheetId="6" r:id="rId8"/>
+    <sheet name="tipo_pago" sheetId="15" r:id="rId9"/>
+    <sheet name="carrito_compras" sheetId="10" r:id="rId10"/>
+    <sheet name="factura " sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -187,9 +187,6 @@
     <t>Recordatorio</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_Recordatorio </t>
-  </si>
-  <si>
     <t>ID unico del recordatorio</t>
   </si>
   <si>
@@ -316,9 +313,6 @@
     <t>TipoPago</t>
   </si>
   <si>
-    <t>ID_Tipo_Pago</t>
-  </si>
-  <si>
     <t>Descripcion_S</t>
   </si>
   <si>
@@ -337,9 +331,6 @@
     <t>Fecha para la reseerva del turno</t>
   </si>
   <si>
-    <t>HORA</t>
-  </si>
-  <si>
     <t>TIME</t>
   </si>
   <si>
@@ -347,6 +338,15 @@
   </si>
   <si>
     <t>ID_tipo_servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hora </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_recordatorio </t>
   </si>
 </sst>
 </file>
@@ -538,9 +538,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +578,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +826,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -850,7 +850,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -880,7 +880,7 @@
     </row>
     <row r="4" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -891,7 +891,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -907,7 +907,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -939,7 +939,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -955,7 +955,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -971,15 +971,15 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -987,7 +987,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1066,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1090,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8AB78C-B123-4DE6-A617-CB63C3F105B6}">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1153,7 +1153,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1169,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1185,7 +1185,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1198,10 +1198,10 @@
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1209,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1238,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1268,10 +1268,10 @@
     </row>
     <row r="4" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1279,12 +1279,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF61CE-D33A-4256-9734-775E9712A8C7}">
   <dimension ref="B1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1389,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -1397,15 +1397,15 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1450,10 +1450,10 @@
     </row>
     <row r="10" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1461,7 +1461,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1477,7 +1477,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1531,7 +1531,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1552,7 +1552,7 @@
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
@@ -1595,7 +1595,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1612,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1666,12 +1666,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1690,7 +1690,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1698,7 +1698,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1769,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1822,10 +1822,10 @@
     </row>
     <row r="8" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1833,7 +1833,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1878,7 +1878,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row r="4" spans="2:7" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -1919,12 +1919,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1951,7 +1951,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +1997,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="5" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -2029,7 +2029,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
@@ -2042,7 +2042,7 @@
     </row>
     <row r="7" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -2061,7 +2061,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2069,15 +2069,15 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2114,7 +2114,7 @@
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -2144,10 +2144,10 @@
     </row>
     <row r="4" spans="2:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -2160,10 +2160,10 @@
     </row>
     <row r="5" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2184,15 +2184,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003B2FF9EB8303F84FA5CD44929B0E5CE5" ma:contentTypeVersion="13" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="f5bd64f7a84b205ae469a6fbf919edfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4654803a-f478-4af1-92a3-defc78799f17" xmlns:ns4="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="87e7a83327a6c006050855c3c36420e3" ns3:_="" ns4:_="">
     <xsd:import namespace="4654803a-f478-4af1-92a3-defc78799f17"/>
@@ -2413,6 +2404,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2422,14 +2422,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1043450-795A-4F67-81EF-EC255C8E7E32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2444,6 +2436,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
+++ b/DICCIONARIO DE BASE DE DATOS/Base de DATOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Documents\GitHub\Master-Barber\DICCIONARIO DE BASE DE DATOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6186EBEB-9481-460D-93A4-28A4B5AB86E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C3A696-39D1-447E-A8E0-4E27A0D2C551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="7" activeTab="10" xr2:uid="{E891A71C-8DC8-4D8D-8A4C-BB629CFC984D}"/>
   </bookViews>
   <sheets>
     <sheet name="usuarios " sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="105">
   <si>
     <t>column name</t>
   </si>
@@ -340,13 +340,16 @@
     <t>ID_tipo_servicio</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hora </t>
   </si>
   <si>
     <t xml:space="preserve">ID_recordatorio </t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>codigo de recuperacion de contraseñas</t>
   </si>
 </sst>
 </file>
@@ -538,9 +541,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -578,7 +581,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -684,7 +687,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -826,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9420D3FF-ED13-41A9-8DE4-2B36600C40CA}">
-  <dimension ref="B1:G10"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -979,7 +982,7 @@
         <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -988,6 +991,22 @@
       </c>
       <c r="G10" s="4" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1023,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,7 +1069,7 @@
         <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1066,7 +1085,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1082,7 +1101,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1107,7 +1126,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,7 +1172,7 @@
         <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1185,7 +1204,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1201,7 +1220,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1271,7 +1290,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1311,7 +1330,7 @@
   <dimension ref="B1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1373,7 +1392,7 @@
         <v>100</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1402,7 +1421,7 @@
     </row>
     <row r="7" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>98</v>
@@ -1453,7 +1472,7 @@
         <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1477,7 +1496,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,7 +1542,7 @@
         <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1587,7 +1606,7 @@
         <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1612,7 +1631,7 @@
   <dimension ref="B1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1655,10 +1674,10 @@
     </row>
     <row r="4" spans="2:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1690,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1715,7 +1734,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +1780,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1825,7 +1844,7 @@
         <v>81</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1865,7 +1884,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1930,7 @@
         <v>81</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -1951,7 +1970,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,7 +2016,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -2045,7 +2064,7 @@
         <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2061,7 +2080,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2077,7 +2096,7 @@
         <v>63</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -2101,7 +2120,7 @@
   <dimension ref="B1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,7 +2166,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -2405,20 +2424,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4654803a-f478-4af1-92a3-defc78799f17" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2441,14 +2460,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE33A4E-339F-4F58-8C11-84F5C69D9783}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="aa4fa073-1933-4d4d-a455-d81ea2b4dfb5"/>
@@ -2463,4 +2474,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FAD9B001-3F78-4B19-8D20-28EE4E6A701B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>